--- a/app/data.xlsx
+++ b/app/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericknavarro/Documents/vanvoguejam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC277F-46A3-3E4C-A782-1FCD3758F362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6D87A-BA52-6A45-8C97-EA4A93017A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{39606C21-12A9-CC4C-B272-A5B83A77E163}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16820" xr2:uid="{39606C21-12A9-CC4C-B272-A5B83A77E163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="177">
   <si>
     <t>Male Figure Best Dressed</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>GNC Face</t>
-  </si>
-  <si>
-    <t>Vampira Telfar (3)</t>
   </si>
   <si>
     <t>Virgin Performance</t>
@@ -1431,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB2DEAF-36BF-5147-8A00-4C97EB82C537}">
-  <dimension ref="A1:F427"/>
+  <dimension ref="A1:F419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,22 +1444,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1490,93 +1487,93 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1584,53 +1581,53 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1638,19 +1635,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1658,13 +1655,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1672,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1692,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1712,19 +1709,19 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1732,19 +1729,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1752,19 +1749,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1772,13 +1769,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1786,13 +1783,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1800,13 +1797,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1814,13 +1811,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1828,13 +1825,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1842,19 +1839,19 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1862,13 +1859,13 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1876,13 +1873,13 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1890,19 +1887,19 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1910,13 +1907,13 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1924,19 +1921,19 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1944,19 +1941,19 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1964,207 +1961,213 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>29</v>
       </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2175,56 +2178,56 @@
         <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="C42" t="s">
-        <v>64</v>
+      <c r="C42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2234,37 +2237,31 @@
       <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>63</v>
+      <c r="C44" t="s">
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2272,13 +2269,13 @@
         <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2286,27 +2283,33 @@
         <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2314,73 +2317,67 @@
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>40</v>
       </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2388,27 +2385,33 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>42</v>
       </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2419,36 +2422,30 @@
         <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>100</v>
-      </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2456,81 +2453,84 @@
         <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2538,16 +2538,19 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2555,567 +2558,573 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>63</v>
+      <c r="C69" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
         <v>106</v>
       </c>
-      <c r="B91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C91" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" t="s">
-        <v>107</v>
-      </c>
       <c r="F91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
         <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3123,969 +3132,972 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D109" t="s">
         <v>48</v>
       </c>
-      <c r="E109" t="s">
-        <v>107</v>
+      <c r="E109" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>120</v>
       </c>
       <c r="D110" t="s">
         <v>48</v>
       </c>
-      <c r="E110" t="s">
-        <v>107</v>
+      <c r="E110" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
+      </c>
+      <c r="C113" t="s">
+        <v>109</v>
       </c>
       <c r="D113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>70</v>
       </c>
       <c r="D114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>75</v>
       </c>
-      <c r="B116" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" t="s">
-        <v>71</v>
-      </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" t="s">
-        <v>80</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="C136" t="s">
+        <v>86</v>
       </c>
       <c r="D136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="C138" t="s">
+        <v>70</v>
       </c>
       <c r="D138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B139" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C139" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="B140" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
       </c>
       <c r="D140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B141" t="s">
-        <v>92</v>
-      </c>
-      <c r="C141" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>91</v>
-      </c>
-      <c r="B142" t="s">
-        <v>93</v>
-      </c>
-      <c r="C142" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
       </c>
-      <c r="C143" t="s">
-        <v>64</v>
+      <c r="C143" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F143" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>81</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
+      </c>
+      <c r="C144" t="s">
+        <v>70</v>
       </c>
       <c r="D144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B145" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>30</v>
-      </c>
-      <c r="B146" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>31</v>
-      </c>
-      <c r="B147" t="s">
-        <v>130</v>
-      </c>
-      <c r="C147" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F147" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" t="s">
-        <v>129</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F150" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B151" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B152" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B153" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4093,4677 +4105,4547 @@
         <v>37</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155" t="s">
-        <v>101</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F155" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>38</v>
-      </c>
-      <c r="B156" t="s">
-        <v>131</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>38</v>
-      </c>
-      <c r="B157" t="s">
-        <v>81</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B158" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B159" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F159" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161" t="s">
-        <v>132</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>43</v>
-      </c>
-      <c r="B162" t="s">
-        <v>133</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D163" t="s">
         <v>49</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>120</v>
+      <c r="E163" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D164" t="s">
         <v>49</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>120</v>
+      <c r="E164" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F164" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D165" t="s">
         <v>49</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>120</v>
+      <c r="E165" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" t="s">
-        <v>62</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>169</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="D167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B168" t="s">
         <v>170</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F169" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B170" t="s">
+        <v>123</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>74</v>
-      </c>
-      <c r="B171" t="s">
-        <v>171</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F171" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>75</v>
       </c>
-      <c r="B172" t="s">
-        <v>172</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F172" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>75</v>
-      </c>
-      <c r="B173" t="s">
-        <v>124</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F174" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>99</v>
       </c>
       <c r="D175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>77</v>
+      </c>
+      <c r="C176" t="s">
+        <v>70</v>
       </c>
       <c r="D176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>173</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>63</v>
+        <v>170</v>
+      </c>
+      <c r="C177" t="s">
+        <v>140</v>
       </c>
       <c r="D177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F177" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B178" t="s">
-        <v>174</v>
-      </c>
-      <c r="C178" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F178" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" t="s">
-        <v>78</v>
-      </c>
-      <c r="C179" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>9</v>
-      </c>
-      <c r="B180" t="s">
-        <v>171</v>
-      </c>
-      <c r="C180" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C181" s="2"/>
       <c r="D181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F182" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F183" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="2"/>
+        <v>16</v>
+      </c>
       <c r="D184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>159</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F185" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F186" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F187" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>160</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>141</v>
+        <v>81</v>
+      </c>
+      <c r="C188" t="s">
+        <v>82</v>
       </c>
       <c r="D188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F188" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F189" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B190" t="s">
+        <v>127</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F190" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>20</v>
-      </c>
-      <c r="B191" t="s">
-        <v>82</v>
-      </c>
-      <c r="C191" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B192" t="s">
+        <v>149</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F192" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>22</v>
-      </c>
-      <c r="B193" t="s">
-        <v>128</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F193" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="B194" t="s">
+        <v>91</v>
+      </c>
+      <c r="C194" t="s">
+        <v>70</v>
       </c>
       <c r="D194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F194" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B195" t="s">
-        <v>150</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>63</v>
+        <v>174</v>
+      </c>
+      <c r="C195" t="s">
+        <v>82</v>
       </c>
       <c r="D195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F196" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B198" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C198" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F198" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="C199" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>105</v>
+        <v>25</v>
+      </c>
+      <c r="B200" t="s">
+        <v>175</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B201" t="s">
+        <v>97</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F201" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B202" t="s">
-        <v>118</v>
-      </c>
-      <c r="C202" t="s">
-        <v>100</v>
+        <v>153</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F202" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>31</v>
-      </c>
-      <c r="B203" t="s">
-        <v>90</v>
-      </c>
-      <c r="C203" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D203" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F203" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>26</v>
-      </c>
-      <c r="B204" t="s">
-        <v>176</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F204" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>32</v>
-      </c>
-      <c r="B205" t="s">
-        <v>98</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B206" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B207" t="s">
+        <v>170</v>
+      </c>
+      <c r="C207" t="s">
+        <v>140</v>
       </c>
       <c r="D207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F207" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F209" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>37</v>
-      </c>
-      <c r="B210" t="s">
-        <v>177</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F210" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B211" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C211" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="D211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F211" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B212" t="s">
+        <v>112</v>
+      </c>
+      <c r="C212" t="s">
+        <v>99</v>
       </c>
       <c r="D212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F212" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D213" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F213" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B214" t="s">
+        <v>84</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F214" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>43</v>
-      </c>
-      <c r="B215" t="s">
-        <v>139</v>
-      </c>
-      <c r="C215" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>43</v>
-      </c>
-      <c r="B216" t="s">
-        <v>113</v>
-      </c>
-      <c r="C216" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C216" s="2"/>
       <c r="D216" t="s">
         <v>50</v>
       </c>
-      <c r="E216" s="4" t="s">
-        <v>168</v>
+      <c r="E216" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="F216" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>84</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D217" t="s">
         <v>50</v>
       </c>
-      <c r="E217" s="4" t="s">
-        <v>168</v>
+      <c r="E217" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="F217" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>45</v>
-      </c>
-      <c r="B218" t="s">
-        <v>85</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D218" t="s">
         <v>50</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>168</v>
+      <c r="E218" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="F218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D219" t="s">
         <v>50</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>168</v>
+      <c r="E219" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="F219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>0</v>
-      </c>
-      <c r="C220" s="2"/>
+        <v>73</v>
+      </c>
       <c r="D220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F220" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B221" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D221" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F221" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B223" t="s">
+        <v>71</v>
+      </c>
+      <c r="C223" t="s">
+        <v>70</v>
       </c>
       <c r="D223" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F224" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D225" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F225" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F226" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C227" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D227" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F227" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B228" t="s">
+        <v>78</v>
+      </c>
+      <c r="C228" t="s">
+        <v>70</v>
       </c>
       <c r="D228" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F228" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>6</v>
-      </c>
-      <c r="B229" t="s">
-        <v>129</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D229" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F229" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D230" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F230" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>8</v>
-      </c>
-      <c r="B231" t="s">
-        <v>72</v>
-      </c>
-      <c r="C231" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F231" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>79</v>
-      </c>
-      <c r="C232" t="s">
-        <v>71</v>
+        <v>135</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D232" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F232" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F233" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D234" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F234" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F235" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B236" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D236" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F236" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F238" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F239" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>17</v>
-      </c>
-      <c r="B240" t="s">
-        <v>67</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F240" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F241" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D242" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F242" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B243" t="s">
+        <v>85</v>
+      </c>
+      <c r="C243" t="s">
+        <v>86</v>
       </c>
       <c r="D243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F243" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B244" t="s">
+        <v>136</v>
+      </c>
+      <c r="C244" t="s">
+        <v>70</v>
       </c>
       <c r="D244" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F244" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>22</v>
+        <v>90</v>
+      </c>
+      <c r="B245" t="s">
+        <v>91</v>
+      </c>
+      <c r="C245" t="s">
+        <v>70</v>
       </c>
       <c r="D245" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F245" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>105</v>
+      </c>
+      <c r="B246" t="s">
+        <v>136</v>
+      </c>
+      <c r="C246" t="s">
+        <v>70</v>
       </c>
       <c r="D246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F246" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B247" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C247" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D247" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F247" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B248" t="s">
+        <v>103</v>
+      </c>
+      <c r="C248" t="s">
+        <v>160</v>
       </c>
       <c r="D248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F248" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B249" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C249" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D249" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B250" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C250" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D250" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B251" t="s">
         <v>137</v>
       </c>
-      <c r="C251" t="s">
-        <v>71</v>
+      <c r="C251" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D251" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F251" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B252" t="s">
-        <v>79</v>
-      </c>
-      <c r="C252" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F252" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B253" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C253" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F253" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>30</v>
-      </c>
-      <c r="B254" t="s">
-        <v>82</v>
-      </c>
-      <c r="C254" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F254" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>31</v>
-      </c>
-      <c r="B255" t="s">
-        <v>130</v>
-      </c>
-      <c r="C255" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F255" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>26</v>
-      </c>
-      <c r="B256" t="s">
-        <v>138</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D256" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F256" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B257" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D257" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F257" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>33</v>
-      </c>
-      <c r="B258" t="s">
-        <v>130</v>
-      </c>
-      <c r="C258" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D258" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F258" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F259" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D260" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F260" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D261" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F261" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B262" t="s">
-        <v>101</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>63</v>
+        <v>138</v>
+      </c>
+      <c r="C262" t="s">
+        <v>99</v>
       </c>
       <c r="D262" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F262" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D263" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F263" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D264" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F264" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D265" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F265" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>141</v>
+      </c>
+      <c r="C266" t="s">
+        <v>140</v>
       </c>
       <c r="D266" t="s">
         <v>51</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F266" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B267" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C267" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D267" t="s">
         <v>51</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F267" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>142</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D268" t="s">
         <v>51</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F268" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D269" t="s">
         <v>51</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F269" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="B270" t="s">
+        <v>108</v>
+      </c>
+      <c r="C270" t="s">
+        <v>109</v>
       </c>
       <c r="D270" t="s">
         <v>51</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F270" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B271" t="s">
-        <v>142</v>
-      </c>
-      <c r="C271" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F271" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C272" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D272" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F272" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B273" t="s">
-        <v>143</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="C273" t="s">
+        <v>70</v>
       </c>
       <c r="D273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F273" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>143</v>
+      </c>
+      <c r="C274" t="s">
+        <v>70</v>
       </c>
       <c r="D274" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F274" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C275" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D275" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F275" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B276" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D276" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F276" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C277" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F277" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C278" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D278" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F278" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="C279" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D279" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F279" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B280" t="s">
         <v>145</v>
       </c>
       <c r="C280" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F280" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>7</v>
-      </c>
-      <c r="B281" t="s">
-        <v>112</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D281" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F281" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>8</v>
-      </c>
-      <c r="B282" t="s">
-        <v>78</v>
-      </c>
-      <c r="C282" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D282" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F282" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>9</v>
-      </c>
-      <c r="B283" t="s">
-        <v>79</v>
-      </c>
-      <c r="C283" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D283" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F283" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>10</v>
-      </c>
-      <c r="B284" t="s">
-        <v>80</v>
-      </c>
-      <c r="C284" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D284" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F284" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B285" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C285" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D285" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F285" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F286" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B287" t="s">
+        <v>146</v>
+      </c>
+      <c r="C287" t="s">
+        <v>86</v>
       </c>
       <c r="D287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F287" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F288" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F289" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B290" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C290" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D290" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F290" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F291" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B292" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C292" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D292" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F292" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B293" t="s">
+        <v>148</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D293" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F293" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B294" t="s">
+        <v>149</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D294" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F294" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C295" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="D295" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F295" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B296" t="s">
+        <v>87</v>
+      </c>
+      <c r="C296" t="s">
+        <v>63</v>
       </c>
       <c r="D296" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F296" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B297" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C297" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D297" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F297" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B298" t="s">
-        <v>149</v>
-      </c>
-      <c r="C298" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C298" t="s">
         <v>63</v>
       </c>
       <c r="D298" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F298" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>150</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="C299" t="s">
+        <v>70</v>
       </c>
       <c r="D299" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F299" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B300" t="s">
+        <v>150</v>
+      </c>
+      <c r="C300" t="s">
+        <v>86</v>
       </c>
       <c r="D300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F300" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B301" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C301" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D301" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F301" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B302" t="s">
-        <v>88</v>
-      </c>
-      <c r="C302" t="s">
-        <v>64</v>
+        <v>151</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D302" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F302" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B303" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="C303" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D303" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F303" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B304" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C304" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D304" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F304" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B305" t="s">
-        <v>79</v>
-      </c>
-      <c r="C305" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D305" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F305" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B306" t="s">
-        <v>151</v>
-      </c>
-      <c r="C306" t="s">
-        <v>87</v>
+        <v>153</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D306" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F306" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>30</v>
-      </c>
-      <c r="B307" t="s">
-        <v>118</v>
-      </c>
-      <c r="C307" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D307" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F307" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>31</v>
-      </c>
-      <c r="B308" t="s">
-        <v>152</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D308" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F308" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>26</v>
-      </c>
-      <c r="B309" t="s">
-        <v>153</v>
-      </c>
-      <c r="C309" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F309" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B310" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C310" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D310" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F310" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B311" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D311" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F311" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>33</v>
-      </c>
-      <c r="B312" t="s">
-        <v>154</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D312" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F312" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D313" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F313" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B314" t="s">
+        <v>69</v>
+      </c>
+      <c r="C314" t="s">
+        <v>63</v>
       </c>
       <c r="D314" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F314" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="B315" t="s">
+        <v>138</v>
+      </c>
+      <c r="C315" t="s">
+        <v>99</v>
       </c>
       <c r="D315" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F315" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B316" t="s">
-        <v>115</v>
-      </c>
-      <c r="C316" t="s">
-        <v>64</v>
+        <v>154</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D316" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F316" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>38</v>
-      </c>
-      <c r="B317" t="s">
-        <v>117</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D317" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F317" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="B318" t="s">
+        <v>85</v>
+      </c>
+      <c r="C318" t="s">
+        <v>86</v>
       </c>
       <c r="D318" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F318" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>61</v>
+      </c>
+      <c r="C319" t="s">
+        <v>156</v>
       </c>
       <c r="D319" t="s">
         <v>52</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F319" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B320" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C320" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D320" t="s">
         <v>52</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F320" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B321" t="s">
-        <v>139</v>
-      </c>
-      <c r="C321" t="s">
-        <v>100</v>
+        <v>121</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D321" t="s">
         <v>52</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F321" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>44</v>
-      </c>
-      <c r="B322" t="s">
-        <v>155</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D322" t="s">
         <v>52</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F322" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="B323" t="s">
+        <v>108</v>
+      </c>
+      <c r="C323" t="s">
+        <v>109</v>
       </c>
       <c r="D323" t="s">
         <v>52</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F323" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B324" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C324" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D324" t="s">
         <v>52</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F324" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B325" t="s">
+        <v>157</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C325" t="s">
-        <v>157</v>
-      </c>
       <c r="D325" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F325" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B326" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C326" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D326" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F326" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>3</v>
-      </c>
-      <c r="B327" t="s">
-        <v>122</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D327" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F327" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="B328" t="s">
+        <v>158</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D328" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F328" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C329" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D329" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F329" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B330" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C330" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D330" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F330" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>4</v>
-      </c>
-      <c r="B331" t="s">
-        <v>158</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F331" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B332" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C332" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D332" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F332" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D333" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F333" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>6</v>
-      </c>
-      <c r="B334" t="s">
-        <v>159</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D334" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F334" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>7</v>
-      </c>
-      <c r="B335" t="s">
-        <v>112</v>
-      </c>
-      <c r="C335" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D335" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F335" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B336" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C336" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D336" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F336" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B337" t="s">
+        <v>112</v>
+      </c>
+      <c r="C337" t="s">
+        <v>99</v>
       </c>
       <c r="D337" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F337" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>10</v>
-      </c>
-      <c r="B338" t="s">
-        <v>80</v>
-      </c>
-      <c r="C338" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F338" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B339" t="s">
+        <v>159</v>
+      </c>
+      <c r="C339" t="s">
+        <v>140</v>
       </c>
       <c r="D339" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F339" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D340" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F340" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D341" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F341" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>14</v>
-      </c>
-      <c r="B342" t="s">
-        <v>123</v>
-      </c>
-      <c r="C342" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F342" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>15</v>
-      </c>
-      <c r="B343" t="s">
-        <v>113</v>
-      </c>
-      <c r="C343" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F343" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B344" t="s">
+        <v>83</v>
+      </c>
+      <c r="C344" t="s">
+        <v>86</v>
       </c>
       <c r="D344" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F344" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>17</v>
-      </c>
-      <c r="B345" t="s">
-        <v>160</v>
-      </c>
-      <c r="C345" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="D345" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F345" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="B346" t="s">
+        <v>149</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D346" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F346" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B347" t="s">
+        <v>89</v>
+      </c>
+      <c r="C347" t="s">
+        <v>63</v>
       </c>
       <c r="D347" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F347" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="B348" t="s">
+        <v>88</v>
+      </c>
+      <c r="C348" t="s">
+        <v>63</v>
       </c>
       <c r="D348" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F348" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>21</v>
+        <v>90</v>
+      </c>
+      <c r="B349" t="s">
+        <v>91</v>
+      </c>
+      <c r="C349" t="s">
+        <v>70</v>
       </c>
       <c r="D349" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F349" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B350" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C350" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D350" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F350" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D351" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F351" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B352" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D352" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B353" t="s">
+        <v>117</v>
+      </c>
+      <c r="C353" t="s">
+        <v>82</v>
       </c>
       <c r="D353" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B354" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C354" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D354" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F354" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>27</v>
-      </c>
-      <c r="B355" t="s">
-        <v>89</v>
-      </c>
-      <c r="C355" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D355" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F355" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B356" t="s">
-        <v>92</v>
-      </c>
-      <c r="C356" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D356" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F356" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>106</v>
-      </c>
-      <c r="B357" t="s">
-        <v>114</v>
-      </c>
-      <c r="C357" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D357" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F357" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="D358" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F358" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>29</v>
-      </c>
-      <c r="B359" t="s">
-        <v>158</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D359" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F359" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>30</v>
-      </c>
-      <c r="B360" t="s">
-        <v>118</v>
-      </c>
-      <c r="C360" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D360" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F360" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B361" t="s">
-        <v>90</v>
-      </c>
-      <c r="C361" t="s">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D361" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F361" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D362" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F362" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>32</v>
-      </c>
-      <c r="B363" t="s">
-        <v>98</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D363" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F363" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D364" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F364" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D365" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F365" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="B366" t="s">
+        <v>131</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D366" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F366" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B367" t="s">
+        <v>103</v>
+      </c>
+      <c r="C367" t="s">
+        <v>160</v>
       </c>
       <c r="D367" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F367" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>37</v>
-      </c>
-      <c r="B368" t="s">
-        <v>101</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D368" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F368" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D369" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F369" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D370" t="s">
         <v>53</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F370" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="B371" t="s">
+        <v>84</v>
+      </c>
+      <c r="C371" t="s">
+        <v>63</v>
       </c>
       <c r="D371" t="s">
         <v>53</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F371" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="B372" t="s">
+        <v>121</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D372" t="s">
         <v>53</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F372" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>43</v>
-      </c>
-      <c r="B373" t="s">
-        <v>132</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D373" t="s">
         <v>53</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F373" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B374" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C374" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D374" t="s">
         <v>53</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F374" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>45</v>
+        <v>74</v>
+      </c>
+      <c r="B375" t="s">
+        <v>123</v>
+      </c>
+      <c r="C375" t="s">
+        <v>140</v>
       </c>
       <c r="D375" t="s">
         <v>53</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F375" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="B376" t="s">
+        <v>122</v>
+      </c>
+      <c r="C376" t="s">
+        <v>70</v>
       </c>
       <c r="D376" t="s">
         <v>53</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F376" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D377" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F377" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>2</v>
-      </c>
-      <c r="B378" t="s">
-        <v>85</v>
-      </c>
-      <c r="C378" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D378" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F378" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>3</v>
-      </c>
-      <c r="B379" t="s">
-        <v>122</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D379" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F379" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="B380" t="s">
+        <v>111</v>
+      </c>
+      <c r="C380" t="s">
+        <v>140</v>
       </c>
       <c r="D380" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F380" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B381" t="s">
+        <v>94</v>
+      </c>
+      <c r="C381" t="s">
         <v>109</v>
       </c>
-      <c r="C381" t="s">
-        <v>110</v>
-      </c>
       <c r="D381" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F381" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B382" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C382" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D382" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F382" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>4</v>
-      </c>
-      <c r="B383" t="s">
-        <v>123</v>
-      </c>
-      <c r="C383" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D383" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F383" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D384" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F384" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D385" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F385" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B386" t="s">
+        <v>135</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D386" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F386" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B387" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C387" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D387" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F387" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>8</v>
-      </c>
-      <c r="B388" t="s">
-        <v>95</v>
-      </c>
-      <c r="C388" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D388" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F388" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>9</v>
-      </c>
-      <c r="B389" t="s">
-        <v>79</v>
-      </c>
-      <c r="C389" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D389" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F389" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B390" t="s">
+        <v>159</v>
+      </c>
+      <c r="C390" t="s">
+        <v>140</v>
       </c>
       <c r="D390" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F390" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D391" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F391" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D392" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F392" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B393" t="s">
-        <v>136</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
+      </c>
+      <c r="C393" t="s">
+        <v>109</v>
       </c>
       <c r="D393" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F393" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B394" t="s">
-        <v>123</v>
-      </c>
-      <c r="C394" t="s">
-        <v>71</v>
+        <v>162</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D394" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F394" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D395" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F395" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D396" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F396" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>17</v>
-      </c>
-      <c r="B397" t="s">
-        <v>160</v>
-      </c>
-      <c r="C397" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="D397" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F397" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D398" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F398" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>19</v>
+        <v>90</v>
+      </c>
+      <c r="B399" t="s">
+        <v>164</v>
+      </c>
+      <c r="C399" t="s">
+        <v>163</v>
       </c>
       <c r="D399" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F399" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B400" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C400" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D400" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F400" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B401" t="s">
-        <v>163</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="C401" t="s">
+        <v>70</v>
       </c>
       <c r="D401" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F401" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D402" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F402" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D403" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F403" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="B404" t="s">
+        <v>89</v>
+      </c>
+      <c r="C404" t="s">
+        <v>63</v>
       </c>
       <c r="D404" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F404" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F405" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B406" t="s">
+        <v>97</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F406" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B407" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C407" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="D407" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F407" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>106</v>
-      </c>
-      <c r="B408" t="s">
-        <v>166</v>
-      </c>
-      <c r="C408" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D408" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F408" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="B409" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C409" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D409" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F409" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D410" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F410" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D411" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F411" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>31</v>
-      </c>
-      <c r="B412" t="s">
-        <v>90</v>
-      </c>
-      <c r="C412" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D412" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F412" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D413" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F413" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B414" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D414" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F414" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>33</v>
-      </c>
-      <c r="B415" t="s">
-        <v>154</v>
-      </c>
-      <c r="C415" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D415" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F415" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="B416" t="s">
+        <v>138</v>
+      </c>
+      <c r="C416" t="s">
+        <v>99</v>
       </c>
       <c r="D416" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F416" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>35</v>
-      </c>
-      <c r="B417" t="s">
-        <v>65</v>
-      </c>
-      <c r="C417" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D417" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F417" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D418" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F418" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D419" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F419" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>38</v>
-      </c>
-      <c r="D420" t="s">
-        <v>54</v>
-      </c>
-      <c r="E420" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F420" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>39</v>
-      </c>
-      <c r="D421" t="s">
-        <v>54</v>
-      </c>
-      <c r="E421" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F421" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>40</v>
-      </c>
-      <c r="B422" t="s">
-        <v>167</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D422" t="s">
-        <v>54</v>
-      </c>
-      <c r="E422" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F422" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>41</v>
-      </c>
-      <c r="D423" t="s">
-        <v>54</v>
-      </c>
-      <c r="E423" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F423" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>43</v>
-      </c>
-      <c r="B424" t="s">
-        <v>139</v>
-      </c>
-      <c r="C424" t="s">
-        <v>100</v>
-      </c>
-      <c r="D424" t="s">
-        <v>54</v>
-      </c>
-      <c r="E424" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F424" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>44</v>
-      </c>
-      <c r="D425" t="s">
-        <v>54</v>
-      </c>
-      <c r="E425" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F425" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>45</v>
-      </c>
-      <c r="D426" t="s">
-        <v>54</v>
-      </c>
-      <c r="E426" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F426" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>46</v>
-      </c>
-      <c r="D427" t="s">
-        <v>54</v>
-      </c>
-      <c r="E427" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F427" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
